--- a/docs/Receitas.xlsx
+++ b/docs/Receitas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nandho\Financas\App_financeiro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A4831D-4AEE-40DA-B5E0-2593AA6A721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05386323-AA46-4659-8393-E4AC620A655A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D9A0F527-4E26-49E0-8007-99CAF9AD59FD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,29 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>CONTA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>TIPO DE RECEBIMENTO</t>
   </si>
   <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>PAGO</t>
-  </si>
-  <si>
     <t>Prefeitura Municipal de Itaquaquecetuba</t>
   </si>
   <si>
@@ -81,6 +63,21 @@
   </si>
   <si>
     <t>Restituição Imposto de Renda</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>received_at</t>
+  </si>
+  <si>
+    <t>account</t>
   </si>
 </sst>
 </file>
@@ -116,8 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,209 +451,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5782D548-B728-4B79-837A-433839F937D5}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="2">
+        <v>6016.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3262.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3262.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2897.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3252.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3247.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>45658</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>6016.37</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>45689</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>3262.9</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>45717</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>3262.9</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>45748</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>2897.43</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>45778</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>3252.72</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>45809</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>3247.5</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>45809</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>806.74</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G18" xr:uid="{5782D548-B728-4B79-837A-433839F937D5}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>